--- a/Excel_Files/SIDER_CID_Name.xlsx
+++ b/Excel_Files/SIDER_CID_Name.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jogeo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jogeo\Desktop\Project\Blood-Brain-Barrier-Drug-Prediction\Excel_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD5AB9E-58A1-4515-8BD9-CC844487CACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDC52DF-8DE5-4BAD-B298-178C2A6B9B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9204,7 +9204,7 @@
   <dimension ref="A1:B1431"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
